--- a/data/fc.xlsx
+++ b/data/fc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="list_fc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="234">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fc -t allinitiators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Display fc node information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,9 +132,6 @@
     <t>Display port logged in target information</t>
   </si>
   <si>
-    <t>Display initiator list from fibre switch</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -345,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fc -t allinitiators -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fc -i 2 -t port -p 2 -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,13 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(node|port|stats|sfp|loggedininitiators|loggedintargets|allinitiators)</t>
-  </si>
-  <si>
-    <t>(node|port|stats|sfp|loggedininitiators|loggedintargets|allinitiators)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invalid setting 5 (1,4)</t>
   </si>
   <si>
@@ -882,6 +864,21 @@
   <si>
     <t>all port on primary ctrl should be cleared</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display list of devices in the switch fabric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc -t fabricdevices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc -t fabricdevices -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(node|port|stats|sfp|loggedininitiators|loggedintargets|fabricdevices)</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1230,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1292,27 +1289,27 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1332,55 +1329,55 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1388,31 +1385,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1420,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1431,38 +1428,38 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1479,10 +1476,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1499,10 +1496,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1519,10 +1516,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1548,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,476 +1628,476 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>101</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
-      </c>
-      <c r="O2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>102</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>103</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>104</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>105</v>
-      </c>
-      <c r="O4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
         <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>98</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>102</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>103</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>104</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>102</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>103</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>104</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>105</v>
-      </c>
-      <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>98</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>99</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>100</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>101</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>102</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>103</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>104</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>105</v>
-      </c>
-      <c r="O12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>99</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>101</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>102</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>103</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>104</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>105</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2144,94 +2141,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2266,34 +2263,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2307,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2328,50 +2325,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2385,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2410,10 +2407,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2432,56 +2429,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2490,10 +2487,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2501,10 +2498,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2512,66 +2509,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
-        <v>182</v>
-      </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2580,32 +2577,32 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
         <v>185</v>
-      </c>
-      <c r="B19" t="s">
-        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -2613,32 +2610,32 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
         <v>186</v>
       </c>
-      <c r="B20" t="s">
-        <v>191</v>
-      </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
-        <v>192</v>
-      </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2646,25 +2643,25 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2734,7 +2731,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2778,7 +2775,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2789,7 +2786,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2800,7 +2797,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2811,7 +2808,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2886,7 +2883,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2897,7 +2894,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2908,7 +2905,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2919,7 +2916,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2952,7 +2949,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>

--- a/data/fc.xlsx
+++ b/data/fc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list_fc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="235">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,6 @@
     <t>HardALPA:</t>
   </si>
   <si>
-    <t>NPortId:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WWPN:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +875,14 @@
   </si>
   <si>
     <t>(node|port|stats|sfp|loggedininitiators|loggedintargets|fabricdevices)</t>
+  </si>
+  <si>
+    <t>WWNN:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCID:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1230,7 +1234,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,9 +1423,6 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1430,16 +1431,13 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1545,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,7 +1557,7 @@
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
@@ -1864,28 +1862,31 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1899,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
         <v>93</v>
@@ -1952,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>93</v>
@@ -2005,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
@@ -2058,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
@@ -2141,94 +2142,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2263,34 +2264,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2325,50 +2326,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2407,10 +2408,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2418,7 +2419,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2429,56 +2430,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2487,10 +2488,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2498,10 +2499,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2509,66 +2510,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
         <v>175</v>
       </c>
-      <c r="B14" t="s">
-        <v>176</v>
-      </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2577,32 +2578,32 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
         <v>178</v>
       </c>
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
         <v>198</v>
       </c>
-      <c r="B18" t="s">
-        <v>199</v>
-      </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -2610,32 +2611,32 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>189</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2643,25 +2644,25 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
         <v>190</v>
       </c>
-      <c r="B23" t="s">
-        <v>191</v>
-      </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
         <v>192</v>
       </c>
-      <c r="B24" t="s">
-        <v>193</v>
-      </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -2720,7 +2721,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2731,7 +2732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2742,7 +2743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2753,7 +2754,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2764,7 +2765,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2775,7 +2776,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2786,7 +2787,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2797,7 +2798,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2808,7 +2809,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2850,7 +2851,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2861,7 +2862,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2872,7 +2873,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2883,7 +2884,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2894,7 +2895,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2916,7 +2917,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2927,7 +2928,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2938,7 +2939,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2949,7 +2950,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2960,7 +2961,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2971,7 +2972,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2982,7 +2983,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>

--- a/data/fc.xlsx
+++ b/data/fc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="233">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,13 +141,6 @@
   <si>
     <t>WWPN</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No targets logged in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No devices logged in</t>
   </si>
   <si>
     <t>CtrlId:</t>
@@ -1296,21 +1289,21 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1339,49 +1332,49 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1392,28 +1385,28 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1434,10 +1427,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1454,10 +1447,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1474,10 +1467,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1494,10 +1487,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1514,10 +1507,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1543,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1626,479 +1619,473 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>98</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>99</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>100</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>101</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>102</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>103</v>
-      </c>
-      <c r="P2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>98</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>99</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>100</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>101</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>102</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>103</v>
-      </c>
-      <c r="P4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
         <v>231</v>
       </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>98</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>99</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>100</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>101</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>102</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>98</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>99</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>101</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>102</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>103</v>
-      </c>
-      <c r="P11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>96</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>97</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>98</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>99</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>102</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>103</v>
-      </c>
-      <c r="P12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>97</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>98</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>99</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>100</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>101</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>102</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>103</v>
-      </c>
-      <c r="P13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2142,94 +2129,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
         <v>132</v>
       </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2264,34 +2251,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2326,50 +2313,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
         <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
         <v>226</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2408,10 +2395,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2419,7 +2406,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2430,56 +2417,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2488,10 +2475,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2499,10 +2486,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2510,66 +2497,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2578,32 +2565,32 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -2611,32 +2598,32 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2644,25 +2631,25 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -2721,7 +2708,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2732,7 +2719,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2743,7 +2730,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2754,7 +2741,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2765,7 +2752,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2776,7 +2763,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2787,7 +2774,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2798,7 +2785,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2809,7 +2796,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2851,7 +2838,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2862,7 +2849,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2873,7 +2860,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2884,7 +2871,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2895,7 +2882,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2906,7 +2893,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2917,7 +2904,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2928,7 +2915,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2939,7 +2926,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2950,7 +2937,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2961,7 +2948,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2972,7 +2959,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2983,7 +2970,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
